--- a/vtiger/src/test/resources/test data/testScriptData.xlsx
+++ b/vtiger/src/test/resources/test data/testScriptData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\eclipse-workspace\vtiger\src\test\resources\test data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\git\repository8\vtiger\src\test\resources\test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
+    <sheet name="organization" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>url</t>
   </si>
@@ -82,6 +83,12 @@
   </si>
   <si>
     <t>Administrator - Contacts - vtiger CRM 5 - Commercial Open Source CRM</t>
+  </si>
+  <si>
+    <t>company Name</t>
+  </si>
+  <si>
+    <t>TCS</t>
   </si>
 </sst>
 </file>
@@ -526,13 +533,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,4 +563,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vtiger/src/test/resources/test data/testScriptData.xlsx
+++ b/vtiger/src/test/resources/test data/testScriptData.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
     <sheet name="organization" sheetId="3" r:id="rId3"/>
+    <sheet name="leads" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>url</t>
   </si>
@@ -88,7 +89,25 @@
     <t>company Name</t>
   </si>
   <si>
-    <t>TCS</t>
+    <t>Qspider</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Qspiders</t>
   </si>
 </sst>
 </file>
@@ -569,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -591,4 +610,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>